--- a/frame.xlsx
+++ b/frame.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_file\projects\oexsd\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D439C5-743A-49CF-83BF-A05DB84C57F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E0590-0A06-4D05-9D75-9B43BB563787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>DT_OEXSD_TEST</t>
   </si>
@@ -66,6 +67,10 @@
   </si>
   <si>
     <t>TopArray1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_OEXSD_TEST2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,4 +525,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB911B3C-E144-4F5A-9623-A1DD6BC8E50E}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{C0FD90EC-D699-491D-B03C-FBEDC8E34F44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>